--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/maestro_station_configuration.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/maestro_station_configuration.xlsx
@@ -659,10 +659,10 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>20240811</v>
+        <v>20240809</v>
       </c>
       <c r="O2" t="n">
-        <v>20240811</v>
+        <v>20240809</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -755,10 +755,10 @@
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>20240812</v>
+        <v>20240810</v>
       </c>
       <c r="O3" t="n">
-        <v>20240812</v>
+        <v>20240810</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -947,10 +947,10 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>20240811</v>
+        <v>20240812</v>
       </c>
       <c r="O5" t="n">
-        <v>20240811</v>
+        <v>20240812</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1139,10 +1139,10 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>20240812</v>
+        <v>20240811</v>
       </c>
       <c r="O7" t="n">
-        <v>20240812</v>
+        <v>20240811</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1235,10 +1235,10 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>20240810</v>
+        <v>20240811</v>
       </c>
       <c r="O8" t="n">
-        <v>20240810</v>
+        <v>20240811</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1331,10 +1331,10 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>20240810</v>
+        <v>20240812</v>
       </c>
       <c r="O9" t="n">
-        <v>20240810</v>
+        <v>20240812</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1427,10 +1427,10 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>20240814</v>
+        <v>20240810</v>
       </c>
       <c r="O10" t="n">
-        <v>20240814</v>
+        <v>20240810</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1523,10 +1523,10 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>20240814</v>
+        <v>20240810</v>
       </c>
       <c r="O11" t="n">
-        <v>20240814</v>
+        <v>20240810</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1619,10 +1619,10 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>20240828</v>
+        <v>20240814</v>
       </c>
       <c r="O12" t="n">
-        <v>20240828</v>
+        <v>20240814</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1715,10 +1715,10 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>20240813</v>
+        <v>20240814</v>
       </c>
       <c r="O13" t="n">
-        <v>20240813</v>
+        <v>20240814</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1811,10 +1811,10 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>20240813</v>
+        <v>20240828</v>
       </c>
       <c r="O14" t="n">
-        <v>20240813</v>
+        <v>20240828</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1907,10 +1907,10 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>20240812</v>
+        <v>20240813</v>
       </c>
       <c r="O15" t="n">
-        <v>20240812</v>
+        <v>20240813</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2003,10 +2003,10 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>20240811</v>
+        <v>20240813</v>
       </c>
       <c r="O16" t="n">
-        <v>20240811</v>
+        <v>20240813</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2099,10 +2099,10 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>20240810</v>
+        <v>20240812</v>
       </c>
       <c r="O17" t="n">
-        <v>20240810</v>
+        <v>20240812</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2195,10 +2195,10 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>20240828</v>
+        <v>20240811</v>
       </c>
       <c r="O18" t="n">
-        <v>20240828</v>
+        <v>20240811</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2268,7 +2268,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
@@ -2291,10 +2291,10 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>20240902</v>
+        <v>20240810</v>
       </c>
       <c r="O19" t="n">
-        <v>20240902</v>
+        <v>20240810</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
@@ -2387,10 +2387,10 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>20240831</v>
+        <v>20240828</v>
       </c>
       <c r="O20" t="n">
-        <v>20240831</v>
+        <v>20240828</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2483,10 +2483,10 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>20240903</v>
+        <v>20240902</v>
       </c>
       <c r="O21" t="n">
-        <v>20240903</v>
+        <v>20240902</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2579,10 +2579,10 @@
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>20240911</v>
+        <v>20240831</v>
       </c>
       <c r="O22" t="n">
-        <v>20240911</v>
+        <v>20240831</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2675,10 +2675,10 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>20240830</v>
+        <v>20240903</v>
       </c>
       <c r="O23" t="n">
-        <v>20240830</v>
+        <v>20240903</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2771,10 +2771,10 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>20240906</v>
+        <v>20240830</v>
       </c>
       <c r="O24" t="n">
-        <v>20240906</v>
+        <v>20240830</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2867,10 +2867,10 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>20240829</v>
+        <v>20240911</v>
       </c>
       <c r="O25" t="n">
-        <v>20240829</v>
+        <v>20240911</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2963,10 +2963,10 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>20240829</v>
+        <v>20240906</v>
       </c>
       <c r="O26" t="n">
-        <v>20240829</v>
+        <v>20240906</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3059,10 +3059,10 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>20240905</v>
+        <v>20240829</v>
       </c>
       <c r="O27" t="n">
-        <v>20240905</v>
+        <v>20240829</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3155,10 +3155,10 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>20240906</v>
+        <v>20240829</v>
       </c>
       <c r="O28" t="n">
-        <v>20240906</v>
+        <v>20240829</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3228,7 +3228,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
@@ -3251,10 +3251,10 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>20240819</v>
+        <v>20240905</v>
       </c>
       <c r="O29" t="n">
-        <v>20240819</v>
+        <v>20240905</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3347,10 +3347,10 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>20240809</v>
+        <v>20240819</v>
       </c>
       <c r="O30" t="n">
-        <v>20240809</v>
+        <v>20240819</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3420,7 +3420,7 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
@@ -3443,10 +3443,10 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>20240810</v>
+        <v>20240906</v>
       </c>
       <c r="O31" t="n">
-        <v>20240810</v>
+        <v>20240906</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3996,7 +3996,7 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
@@ -4019,10 +4019,10 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>20240827</v>
+        <v>20240909</v>
       </c>
       <c r="O37" t="n">
-        <v>20240827</v>
+        <v>20240909</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
@@ -4115,10 +4115,10 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>20240909</v>
+        <v>20240824</v>
       </c>
       <c r="O38" t="n">
-        <v>20240909</v>
+        <v>20240824</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4211,10 +4211,10 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>20240824</v>
+        <v>20240827</v>
       </c>
       <c r="O39" t="n">
-        <v>20240824</v>
+        <v>20240827</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4307,10 +4307,10 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>20240829</v>
+        <v>20240903</v>
       </c>
       <c r="O40" t="n">
-        <v>20240829</v>
+        <v>20240903</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4380,7 +4380,7 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -4403,10 +4403,10 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>20240901</v>
+        <v>20240822</v>
       </c>
       <c r="O41" t="n">
-        <v>20240901</v>
+        <v>20240822</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4499,10 +4499,10 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>20240903</v>
+        <v>20240901</v>
       </c>
       <c r="O42" t="n">
-        <v>20240903</v>
+        <v>20240901</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
@@ -4595,10 +4595,10 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>20240822</v>
+        <v>20240829</v>
       </c>
       <c r="O43" t="n">
-        <v>20240822</v>
+        <v>20240829</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
@@ -4883,10 +4883,10 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>20240910</v>
+        <v>20240819</v>
       </c>
       <c r="O46" t="n">
-        <v>20240910</v>
+        <v>20240819</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4956,7 +4956,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
@@ -4979,10 +4979,10 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>20240810</v>
+        <v>20240910</v>
       </c>
       <c r="O47" t="n">
-        <v>20240810</v>
+        <v>20240910</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5075,10 +5075,10 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>20240819</v>
+        <v>20240810</v>
       </c>
       <c r="O48" t="n">
-        <v>20240819</v>
+        <v>20240810</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5267,10 +5267,10 @@
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>20240818</v>
+        <v>20240816</v>
       </c>
       <c r="O50" t="n">
-        <v>20240818</v>
+        <v>20240816</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5363,10 +5363,10 @@
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>20240816</v>
+        <v>20240818</v>
       </c>
       <c r="O51" t="n">
-        <v>20240816</v>
+        <v>20240818</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6035,10 +6035,10 @@
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>20240824</v>
+        <v>20240828</v>
       </c>
       <c r="O58" t="n">
-        <v>20240824</v>
+        <v>20240828</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6108,7 +6108,7 @@
         <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
@@ -6131,10 +6131,10 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>20240907</v>
+        <v>20240819</v>
       </c>
       <c r="O59" t="n">
-        <v>20240907</v>
+        <v>20240819</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6227,10 +6227,10 @@
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>20240819</v>
+        <v>20240824</v>
       </c>
       <c r="O60" t="n">
-        <v>20240819</v>
+        <v>20240824</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6323,10 +6323,10 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>20240828</v>
+        <v>20240823</v>
       </c>
       <c r="O61" t="n">
-        <v>20240828</v>
+        <v>20240823</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
@@ -6419,10 +6419,10 @@
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>20240823</v>
+        <v>20240907</v>
       </c>
       <c r="O62" t="n">
-        <v>20240823</v>
+        <v>20240907</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6899,10 +6899,10 @@
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>20240909</v>
+        <v>20240831</v>
       </c>
       <c r="O67" t="n">
-        <v>20240909</v>
+        <v>20240831</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -7164,7 +7164,7 @@
         <v>69</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
@@ -7187,10 +7187,10 @@
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>20240825</v>
+        <v>20240904</v>
       </c>
       <c r="O70" t="n">
-        <v>20240825</v>
+        <v>20240904</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -7260,7 +7260,7 @@
         <v>70</v>
       </c>
       <c r="E71" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
@@ -7283,10 +7283,10 @@
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>20240830</v>
+        <v>20240825</v>
       </c>
       <c r="O71" t="n">
-        <v>20240830</v>
+        <v>20240825</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7379,10 +7379,10 @@
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>20240904</v>
+        <v>20240830</v>
       </c>
       <c r="O72" t="n">
-        <v>20240904</v>
+        <v>20240830</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -7475,10 +7475,10 @@
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>20240831</v>
+        <v>20240909</v>
       </c>
       <c r="O73" t="n">
-        <v>20240831</v>
+        <v>20240909</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7859,10 +7859,10 @@
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>20240827</v>
+        <v>20240822</v>
       </c>
       <c r="O77" t="n">
-        <v>20240827</v>
+        <v>20240822</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7932,7 +7932,7 @@
         <v>77</v>
       </c>
       <c r="E78" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
@@ -7955,10 +7955,10 @@
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>20240904</v>
+        <v>20240818</v>
       </c>
       <c r="O78" t="n">
-        <v>20240904</v>
+        <v>20240818</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>78</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
@@ -8051,10 +8051,10 @@
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>20240822</v>
+        <v>20240902</v>
       </c>
       <c r="O79" t="n">
-        <v>20240822</v>
+        <v>20240902</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -8147,10 +8147,10 @@
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>20240825</v>
+        <v>20240827</v>
       </c>
       <c r="O80" t="n">
-        <v>20240825</v>
+        <v>20240827</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
@@ -8243,10 +8243,10 @@
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>20240818</v>
+        <v>20240908</v>
       </c>
       <c r="O81" t="n">
-        <v>20240818</v>
+        <v>20240908</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -8316,7 +8316,7 @@
         <v>81</v>
       </c>
       <c r="E82" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
@@ -8339,10 +8339,10 @@
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>20240908</v>
+        <v>20240816</v>
       </c>
       <c r="O82" t="n">
-        <v>20240908</v>
+        <v>20240816</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -8531,10 +8531,10 @@
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>20240902</v>
+        <v>20240904</v>
       </c>
       <c r="O84" t="n">
-        <v>20240902</v>
+        <v>20240904</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -8723,10 +8723,10 @@
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>20240816</v>
+        <v>20240825</v>
       </c>
       <c r="O86" t="n">
-        <v>20240816</v>
+        <v>20240825</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>88</v>
       </c>
       <c r="E89" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>3</v>
@@ -9011,10 +9011,10 @@
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>20240910</v>
+        <v>20240822</v>
       </c>
       <c r="O89" t="n">
-        <v>20240910</v>
+        <v>20240822</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -9084,7 +9084,7 @@
         <v>89</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
@@ -9107,10 +9107,10 @@
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
-        <v>20240822</v>
+        <v>20240910</v>
       </c>
       <c r="O90" t="n">
-        <v>20240822</v>
+        <v>20240910</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -9299,10 +9299,10 @@
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>20240831</v>
+        <v>20240903</v>
       </c>
       <c r="O92" t="n">
-        <v>20240831</v>
+        <v>20240903</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -9372,7 +9372,7 @@
         <v>92</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F93" t="n">
         <v>3</v>
@@ -9395,10 +9395,10 @@
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>20240816</v>
+        <v>20240830</v>
       </c>
       <c r="O93" t="n">
-        <v>20240816</v>
+        <v>20240830</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -9491,10 +9491,10 @@
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>20240822</v>
+        <v>20240816</v>
       </c>
       <c r="O94" t="n">
-        <v>20240822</v>
+        <v>20240816</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -9564,7 +9564,7 @@
         <v>94</v>
       </c>
       <c r="E95" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>3</v>
@@ -9587,10 +9587,10 @@
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>20240907</v>
+        <v>20240822</v>
       </c>
       <c r="O95" t="n">
-        <v>20240907</v>
+        <v>20240822</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -9683,10 +9683,10 @@
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>20240830</v>
+        <v>20240910</v>
       </c>
       <c r="O96" t="n">
-        <v>20240830</v>
+        <v>20240910</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -9779,10 +9779,10 @@
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
-        <v>20240903</v>
+        <v>20240902</v>
       </c>
       <c r="O97" t="n">
-        <v>20240903</v>
+        <v>20240902</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -9852,7 +9852,7 @@
         <v>97</v>
       </c>
       <c r="E98" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>3</v>
@@ -9875,10 +9875,10 @@
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>20240902</v>
+        <v>20240820</v>
       </c>
       <c r="O98" t="n">
-        <v>20240902</v>
+        <v>20240820</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -9971,10 +9971,10 @@
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>20240910</v>
+        <v>20240907</v>
       </c>
       <c r="O99" t="n">
-        <v>20240910</v>
+        <v>20240907</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -10044,7 +10044,7 @@
         <v>99</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F100" t="n">
         <v>3</v>
@@ -10067,10 +10067,10 @@
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>20240820</v>
+        <v>20240831</v>
       </c>
       <c r="O100" t="n">
-        <v>20240820</v>
+        <v>20240831</v>
       </c>
       <c r="P100" t="n">
         <v>1</v>
@@ -10547,10 +10547,10 @@
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>20240825</v>
+        <v>20240815</v>
       </c>
       <c r="O105" t="n">
-        <v>20240825</v>
+        <v>20240815</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -10643,10 +10643,10 @@
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>20240825</v>
+        <v>20240814</v>
       </c>
       <c r="O106" t="n">
-        <v>20240825</v>
+        <v>20240814</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -10739,10 +10739,10 @@
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>20240815</v>
+        <v>20240817</v>
       </c>
       <c r="O107" t="n">
-        <v>20240815</v>
+        <v>20240817</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -10812,7 +10812,7 @@
         <v>107</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F108" t="n">
         <v>3</v>
@@ -10835,10 +10835,10 @@
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>20240814</v>
+        <v>20240909</v>
       </c>
       <c r="O108" t="n">
-        <v>20240814</v>
+        <v>20240909</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -10908,7 +10908,7 @@
         <v>108</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F109" t="n">
         <v>3</v>
@@ -10931,10 +10931,10 @@
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>20240816</v>
+        <v>20240906</v>
       </c>
       <c r="O109" t="n">
-        <v>20240816</v>
+        <v>20240906</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -11004,7 +11004,7 @@
         <v>109</v>
       </c>
       <c r="E110" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>3</v>
@@ -11027,10 +11027,10 @@
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>20240906</v>
+        <v>20240816</v>
       </c>
       <c r="O110" t="n">
-        <v>20240906</v>
+        <v>20240816</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -11100,7 +11100,7 @@
         <v>110</v>
       </c>
       <c r="E111" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>3</v>
@@ -11123,10 +11123,10 @@
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="n">
-        <v>20240909</v>
+        <v>20240816</v>
       </c>
       <c r="O111" t="n">
-        <v>20240909</v>
+        <v>20240816</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -11219,10 +11219,10 @@
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>20240817</v>
+        <v>20240825</v>
       </c>
       <c r="O112" t="n">
-        <v>20240817</v>
+        <v>20240825</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -11315,10 +11315,10 @@
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>20240822</v>
+        <v>20240827</v>
       </c>
       <c r="O113" t="n">
-        <v>20240822</v>
+        <v>20240827</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -11411,10 +11411,10 @@
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>20240816</v>
+        <v>20240814</v>
       </c>
       <c r="O114" t="n">
-        <v>20240816</v>
+        <v>20240814</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -11507,10 +11507,10 @@
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>20240819</v>
+        <v>20240822</v>
       </c>
       <c r="O115" t="n">
-        <v>20240819</v>
+        <v>20240822</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -11603,10 +11603,10 @@
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>20240827</v>
+        <v>20240820</v>
       </c>
       <c r="O116" t="n">
-        <v>20240827</v>
+        <v>20240820</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -11699,10 +11699,10 @@
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>20240814</v>
+        <v>20240815</v>
       </c>
       <c r="O117" t="n">
-        <v>20240814</v>
+        <v>20240815</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -11772,7 +11772,7 @@
         <v>117</v>
       </c>
       <c r="E118" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>3</v>
@@ -11795,10 +11795,10 @@
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>20240907</v>
+        <v>20240825</v>
       </c>
       <c r="O118" t="n">
-        <v>20240907</v>
+        <v>20240825</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -11891,10 +11891,10 @@
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
-        <v>20240820</v>
+        <v>20240819</v>
       </c>
       <c r="O119" t="n">
-        <v>20240820</v>
+        <v>20240819</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -12060,7 +12060,7 @@
         <v>120</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F121" t="n">
         <v>3</v>
@@ -12083,10 +12083,10 @@
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="n">
-        <v>20240815</v>
+        <v>20240907</v>
       </c>
       <c r="O121" t="n">
-        <v>20240815</v>
+        <v>20240907</v>
       </c>
       <c r="P121" t="n">
         <v>1</v>
@@ -12275,10 +12275,10 @@
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
-        <v>20240904</v>
+        <v>20240901</v>
       </c>
       <c r="O123" t="n">
-        <v>20240904</v>
+        <v>20240901</v>
       </c>
       <c r="P123" t="n">
         <v>1</v>
@@ -12371,10 +12371,10 @@
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="n">
-        <v>20240901</v>
+        <v>20240904</v>
       </c>
       <c r="O124" t="n">
-        <v>20240901</v>
+        <v>20240904</v>
       </c>
       <c r="P124" t="n">
         <v>1</v>
